--- a/October'21/25.10.2021/Daily Sales Info.xlsx
+++ b/October'21/25.10.2021/Daily Sales Info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="784" firstSheet="2" activeTab="24"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="784" firstSheet="2" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -42207,9 +42207,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomLeft" activeCell="G37" sqref="G36:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43903,9 +43903,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
